--- a/Skil4/Dagbækur/ÖssurDagbók.xlsx
+++ b/Skil4/Dagbækur/ÖssurDagbók.xlsx
@@ -203,8 +203,8 @@
   </sheetPr>
   <dimension ref="B2:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0" tabSelected="1">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A42" workbookViewId="0" tabSelected="1">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -722,7 +722,6 @@
       <c r="L36" t="str">
         <v>"Rannsóknir" snerust um að reyna að fá CaptureMouse() fallið til að virka á tölvunni minni. Prófaði nokkrar mismunandi útgáfur af stýrikerfi og wxPython. Það tókst ekki.</v>
       </c>
-      <c r="M36"/>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" t="s">
@@ -765,7 +764,6 @@
         <f>SUM(C40:I40)</f>
         <v>30</v>
       </c>
-      <c r="K40"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="5" t="s">
@@ -848,9 +846,15 @@
       <c r="D46">
         <v>60</v>
       </c>
+      <c r="F46">
+        <v>90</v>
+      </c>
+      <c r="G46">
+        <v>120</v>
+      </c>
       <c r="J46">
         <f>SUM(C46:I46)</f>
-        <v>60</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="2:13">
@@ -866,9 +870,12 @@
       <c r="B48" t="s">
         <v>9</v>
       </c>
+      <c r="G48">
+        <v>120</v>
+      </c>
       <c r="J48">
         <f>SUM(C48:I48)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="2:13">
@@ -896,13 +903,15 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="5">
+        <v>30</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5">
         <f>SUM(C51:I51)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="2:13">
@@ -911,7 +920,7 @@
       </c>
       <c r="J52">
         <f>SUM(J46:J51)</f>
-        <v>60</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="2:13">
